--- a/1. Doble Rendija/Data/data_derecha_laser.xlsx
+++ b/1. Doble Rendija/Data/data_derecha_laser.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_martinezc234_uniandes_edu_co/Documents/6to Semestre/Laboratorio Intermedio/Laboratorios/Semana 1- Doble Rendija/Datos Y Análisis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\santi\Documents\GitHub\Intermedio\1. Doble Rendija\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="11_AD4D2F04E46CFB4ACB3E20CFFD17DF80683EDF22" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7B78063-C003-4335-B3B6-5C10A2726671}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F903A29F-839C-4FD6-A90B-C777154D5242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,8 +75,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,9 +118,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1855,10 +1855,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2774,7 +2770,7 @@
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
